--- a/docking/InterfacingResidues.xlsx
+++ b/docking/InterfacingResidues.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\docking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721E59D1-D32E-4974-9F2A-EFEB26ABE689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4FF05-D50F-47F3-8013-1889F466303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B455CDFA-80ED-440F-BE3C-A99CD132D734}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{B455CDFA-80ED-440F-BE3C-A99CD132D734}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="CR3022" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="CR3022" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="29">
   <si>
     <t>R</t>
   </si>
@@ -83,6 +84,9 @@
     <t>Interface Position</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -126,8 +130,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,11 +189,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +217,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F1B449-DA5A-4A03-BBCF-586C5B2C0AF8}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,50 +568,50 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,10 +634,22 @@
       <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A49" si="0">B4+3</f>
+        <f t="shared" ref="A4:A51" si="0">B4+3</f>
         <v>408</v>
       </c>
       <c r="B4" s="3">
@@ -602,6 +665,18 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -613,16 +688,28 @@
         <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -640,10 +727,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -658,13 +757,25 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -675,16 +786,28 @@
         <v>414</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -707,6 +830,18 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -728,6 +863,18 @@
       <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -749,800 +896,1332 @@
       <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>423</v>
-      </c>
-      <c r="B12">
-        <v>420</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
+        <v>421</v>
+      </c>
+      <c r="B12" s="5">
+        <v>418</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>424</v>
-      </c>
-      <c r="B13" s="3">
-        <v>421</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
+        <v>423</v>
+      </c>
+      <c r="B13">
+        <v>420</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>451</v>
-      </c>
-      <c r="B14" s="2">
-        <v>448</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>424</v>
+      </c>
+      <c r="B14" s="3">
+        <v>421</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>452</v>
-      </c>
-      <c r="B15">
         <v>449</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
+      <c r="B15" s="5">
+        <v>446</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="B16" s="2">
+        <v>448</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="B17">
+        <v>449</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>455</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>452</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="B19">
+        <v>453</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>458</v>
+      </c>
+      <c r="B20" s="3">
+        <v>455</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+      <c r="B21">
+        <v>456</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="B22">
+        <v>457</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+      <c r="B23">
+        <v>458</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>462</v>
+      </c>
+      <c r="B24">
+        <v>459</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="B25">
+        <v>460</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>475</v>
+      </c>
+      <c r="B26">
+        <v>470</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+      <c r="B27">
+        <v>473</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>477</v>
+      </c>
+      <c r="B28">
+        <v>474</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+      <c r="B29">
+        <v>475</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
+      <c r="B30">
+        <v>476</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="B31" s="4">
+        <v>477</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>481</v>
+      </c>
+      <c r="B32">
+        <v>478</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>487</v>
+      </c>
+      <c r="B33" s="2">
+        <v>484</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>488</v>
+      </c>
+      <c r="B34">
+        <v>485</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+      <c r="B35">
+        <v>486</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="B36">
+        <v>487</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>492</v>
+      </c>
+      <c r="B37">
+        <v>489</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>493</v>
+      </c>
+      <c r="B38">
+        <v>490</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>494</v>
+      </c>
+      <c r="B39">
+        <v>491</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>495</v>
+      </c>
+      <c r="B40">
+        <v>492</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>496</v>
+      </c>
+      <c r="B41" s="4">
+        <v>493</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>497</v>
+      </c>
+      <c r="B42" s="2">
+        <v>494</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>498</v>
+      </c>
+      <c r="B43">
+        <v>495</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>499</v>
+      </c>
+      <c r="B44">
+        <v>496</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>456</v>
-      </c>
-      <c r="B17">
-        <v>453</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>458</v>
-      </c>
-      <c r="B18" s="3">
-        <v>455</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>459</v>
-      </c>
-      <c r="B19">
-        <v>456</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>460</v>
-      </c>
-      <c r="B20">
-        <v>457</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>461</v>
-      </c>
-      <c r="B21">
-        <v>458</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>462</v>
-      </c>
-      <c r="B22">
-        <v>459</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>463</v>
-      </c>
-      <c r="B23">
-        <v>460</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>475</v>
-      </c>
-      <c r="B24">
-        <v>470</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>476</v>
-      </c>
-      <c r="B25">
-        <v>473</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>477</v>
-      </c>
-      <c r="B26">
-        <v>474</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>478</v>
-      </c>
-      <c r="B27">
-        <v>475</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>479</v>
-      </c>
-      <c r="B28">
-        <v>476</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="B29">
-        <v>477</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>481</v>
-      </c>
-      <c r="B30">
-        <v>478</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="B45" s="4">
+        <v>498</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="B46" s="3">
+        <v>500</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>487</v>
-      </c>
-      <c r="B31" s="2">
-        <v>484</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>488</v>
-      </c>
-      <c r="B32">
-        <v>485</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>489</v>
-      </c>
-      <c r="B33">
-        <v>486</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="B34">
-        <v>487</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>492</v>
-      </c>
-      <c r="B35">
-        <v>489</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>493</v>
-      </c>
-      <c r="B36">
-        <v>490</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>494</v>
-      </c>
-      <c r="B37">
-        <v>491</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>495</v>
-      </c>
-      <c r="B38">
-        <v>492</v>
-      </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>496</v>
-      </c>
-      <c r="B39" s="4">
-        <v>493</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>497</v>
-      </c>
-      <c r="B40" s="2">
-        <v>494</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>498</v>
-      </c>
-      <c r="B41">
-        <v>495</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>499</v>
-      </c>
-      <c r="B42">
-        <v>496</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
+      <c r="B47" s="4">
         <v>501</v>
       </c>
-      <c r="B43" s="4">
-        <v>498</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
+      <c r="B48" s="3">
+        <v>502</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="B49">
         <v>503</v>
       </c>
-      <c r="B44" s="3">
-        <v>500</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+      <c r="B50">
         <v>504</v>
       </c>
-      <c r="B45" s="4">
-        <v>501</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="B51" s="4">
         <v>505</v>
       </c>
-      <c r="B46" s="3">
-        <v>502</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>506</v>
-      </c>
-      <c r="B47">
-        <v>503</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>507</v>
-      </c>
-      <c r="B48">
-        <v>504</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>508</v>
-      </c>
-      <c r="B49" s="4">
-        <v>505</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>16</v>
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1559,56 +2238,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D8E664-0DF5-4B6E-81A5-99F9962DFF15}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>417</v>
       </c>
@@ -1630,8 +2324,14 @@
       <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>448</v>
       </c>
@@ -1639,171 +2339,576 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>477</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>484</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>493</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>494</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>498</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>501</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>505</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FEF2E-58FA-4B5D-822F-EFB70D881BCB}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="A1:K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10">
+        <v>417</v>
+      </c>
+      <c r="D1" s="11">
+        <v>448</v>
+      </c>
+      <c r="E1" s="10">
+        <v>477</v>
+      </c>
+      <c r="F1" s="11">
+        <v>484</v>
+      </c>
+      <c r="G1" s="10">
+        <v>493</v>
+      </c>
+      <c r="H1" s="11">
+        <v>494</v>
+      </c>
+      <c r="I1" s="10">
+        <v>498</v>
+      </c>
+      <c r="J1" s="10">
+        <v>501</v>
+      </c>
+      <c r="K1" s="10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46735645-5CFA-491A-8241-12D6AB614FDC}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -1822,20 +2927,20 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +3010,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1919,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,10 +3077,10 @@
         <v>420</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,10 +3105,10 @@
         <v>448</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,7 +3136,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2098,10 +3203,10 @@
         <v>458</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,10 +3217,10 @@
         <v>459</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,10 +3245,10 @@
         <v>470</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2168,7 +3273,7 @@
         <v>474</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
@@ -2224,10 +3329,10 @@
         <v>478</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,10 +3427,10 @@
         <v>491</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2367,7 +3472,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,7 +3483,7 @@
         <v>495</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>6</v>
@@ -2395,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,10 +3567,10 @@
         <v>503</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,10 +3581,10 @@
         <v>504</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2493,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docking/InterfacingResidues.xlsx
+++ b/docking/InterfacingResidues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\docking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4FF05-D50F-47F3-8013-1889F466303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A71971-C110-468D-BD2B-B9DA703B3FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{B455CDFA-80ED-440F-BE3C-A99CD132D734}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B455CDFA-80ED-440F-BE3C-A99CD132D734}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="31">
   <si>
     <t>R</t>
   </si>
@@ -125,6 +125,12 @@
   <si>
     <t>6XE1 vs. B.1.1.529</t>
   </si>
+  <si>
+    <t>RoseTTAFold Prediction</t>
+  </si>
+  <si>
+    <t>AlphaFold2 Prediction</t>
+  </si>
 </sst>
 </file>
 
@@ -208,11 +214,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -224,14 +227,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +559,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:J31"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,31 +573,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>19</v>
       </c>
@@ -619,31 +628,31 @@
         <f>B3+3</f>
         <v>406</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>403</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -652,31 +661,31 @@
         <f t="shared" ref="A4:A51" si="0">B4+3</f>
         <v>408</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>405</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -815,31 +824,31 @@
         <f t="shared" si="0"/>
         <v>418</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>415</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -848,31 +857,31 @@
         <f t="shared" si="0"/>
         <v>419</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>416</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -881,31 +890,31 @@
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>417</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -913,31 +922,31 @@
       <c r="A12">
         <v>421</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>418</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -979,31 +988,31 @@
         <f t="shared" si="0"/>
         <v>424</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>421</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1011,31 +1020,31 @@
       <c r="A15">
         <v>449</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>446</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1044,31 +1053,31 @@
         <f t="shared" si="0"/>
         <v>451</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>448</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1095,13 +1104,13 @@
       <c r="G17" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="H17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1127,13 +1136,13 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1160,13 +1169,13 @@
       <c r="G19" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="H19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1175,31 +1184,31 @@
         <f t="shared" si="0"/>
         <v>458</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>455</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1226,13 +1235,13 @@
       <c r="G21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1259,13 +1268,13 @@
       <c r="G22" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="s">
+      <c r="H22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1292,13 +1301,13 @@
       <c r="G23" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1325,13 +1334,13 @@
       <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1358,13 +1367,13 @@
       <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="H25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1390,13 +1399,13 @@
       <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="H26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1423,13 +1432,13 @@
       <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="H27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1456,13 +1465,13 @@
       <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1489,13 +1498,13 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1522,13 +1531,13 @@
       <c r="G30" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5" t="s">
+      <c r="H30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1537,31 +1546,31 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>477</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="H31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1588,13 +1597,13 @@
       <c r="G32" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="H32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1603,31 +1612,31 @@
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>484</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1654,13 +1663,13 @@
       <c r="G34" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="5" t="s">
+      <c r="H34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1687,13 +1696,13 @@
       <c r="G35" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1720,13 +1729,13 @@
       <c r="G36" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="5" t="s">
+      <c r="H36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1753,13 +1762,13 @@
       <c r="G37" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="5" t="s">
+      <c r="H37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1786,13 +1795,13 @@
       <c r="G38" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="5" t="s">
+      <c r="H38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1819,13 +1828,13 @@
       <c r="G39" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="5" t="s">
+      <c r="H39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1851,13 +1860,13 @@
       <c r="G40" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="5" t="s">
+      <c r="H40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1866,31 +1875,31 @@
         <f t="shared" si="0"/>
         <v>496</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>493</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="F41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="H41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1899,31 +1908,31 @@
         <f t="shared" si="0"/>
         <v>497</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>494</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1950,13 +1959,13 @@
       <c r="G43" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="5" t="s">
+      <c r="H43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1983,13 +1992,13 @@
       <c r="G44" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44" s="5" t="s">
+      <c r="I44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1998,31 +2007,31 @@
         <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>498</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="F45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="H45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2031,31 +2040,31 @@
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>500</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2064,31 +2073,31 @@
         <f t="shared" si="0"/>
         <v>504</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>501</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="4" t="s">
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2097,31 +2106,31 @@
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>502</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2196,31 +2205,31 @@
         <f t="shared" si="0"/>
         <v>508</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>505</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="4" t="s">
+      <c r="I51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2241,7 +2250,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,28 +2264,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="10"/>
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -2303,263 +2312,263 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>417</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>448</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>477</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>484</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>493</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>494</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>498</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>501</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>505</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2577,331 +2586,463 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FEF2E-58FA-4B5D-822F-EFB70D881BCB}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="A1:K9"/>
+      <selection activeCell="K13" sqref="A2:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10">
+      <c r="B1" s="11"/>
+      <c r="C1" s="8">
         <v>417</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="9">
         <v>448</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="8">
         <v>477</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="9">
         <v>484</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="8">
         <v>493</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="9">
         <v>494</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="8">
         <v>498</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="8">
         <v>501</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="8">
         <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="J8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="I9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="J11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="I12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2923,19 +3064,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="10"/>
       <c r="C2" t="s">
         <v>19</v>
       </c>
@@ -2947,13 +3088,13 @@
       <c r="A3">
         <v>406</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>403</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2961,13 +3102,13 @@
       <c r="A4">
         <v>408</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>405</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3031,13 +3172,13 @@
       <c r="A9">
         <v>418</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>415</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3045,13 +3186,13 @@
       <c r="A10">
         <v>419</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>416</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3059,13 +3200,13 @@
       <c r="A11">
         <v>420</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>417</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3087,13 +3228,13 @@
       <c r="A13">
         <v>424</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>421</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3101,13 +3242,13 @@
       <c r="A14">
         <v>451</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>448</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3121,7 +3262,7 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3135,7 +3276,7 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3149,7 +3290,7 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3157,13 +3298,13 @@
       <c r="A18">
         <v>458</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>455</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3177,7 +3318,7 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3191,7 +3332,7 @@
       <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3205,7 +3346,7 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3219,7 +3360,7 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3233,7 +3374,7 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3247,7 +3388,7 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3261,7 +3402,7 @@
       <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3275,7 +3416,7 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3289,7 +3430,7 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3303,7 +3444,7 @@
       <c r="C28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3317,7 +3458,7 @@
       <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3331,7 +3472,7 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3339,13 +3480,13 @@
       <c r="A31">
         <v>487</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>484</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3359,7 +3500,7 @@
       <c r="C32" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3373,7 +3514,7 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3387,7 +3528,7 @@
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3401,7 +3542,7 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3415,7 +3556,7 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3429,7 +3570,7 @@
       <c r="C37" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3443,7 +3584,7 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3451,13 +3592,13 @@
       <c r="A39">
         <v>496</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>493</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3465,13 +3606,13 @@
       <c r="A40">
         <v>497</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>494</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3485,7 +3626,7 @@
       <c r="C41" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3499,7 +3640,7 @@
       <c r="C42" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3507,13 +3648,13 @@
       <c r="A43">
         <v>501</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>498</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3521,13 +3662,13 @@
       <c r="A44">
         <v>503</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>500</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3535,13 +3676,13 @@
       <c r="A45">
         <v>504</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>501</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3549,13 +3690,13 @@
       <c r="A46">
         <v>505</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>502</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3591,13 +3732,13 @@
       <c r="A49">
         <v>508</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>505</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>17</v>
       </c>
     </row>
